--- a/Palestras/202104 - Guia Essencial Python/dados/dia02.xlsx
+++ b/Palestras/202104 - Guia Essencial Python/dados/dia02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PESSOAL\DataAnalist\DataScience\Git\materiais_apoio_cursos\Palestras\202104 - Guia Essencial Python\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBDC57D-807A-4324-931D-E4AC43AEE6EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCBA2DC-8DA7-4029-9293-0C1BF117AEB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92A72FA7-27AF-47DF-994B-A15E26682434}"/>
   </bookViews>
@@ -437,7 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6F135-EADC-4E12-B2D9-5DBB4879B8D0}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -466,7 +468,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -483,7 +485,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -500,7 +502,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -517,7 +519,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -534,7 +536,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -551,7 +553,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -568,7 +570,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -585,7 +587,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -602,7 +604,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -619,7 +621,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -636,7 +638,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -653,7 +655,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -670,7 +672,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -687,7 +689,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -704,7 +706,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -721,7 +723,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -738,7 +740,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
@@ -755,7 +757,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -772,7 +774,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
@@ -789,7 +791,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
@@ -806,7 +808,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
@@ -823,7 +825,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
@@ -840,7 +842,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
@@ -857,7 +859,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>36526</v>
+        <v>36527</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
